--- a/java/java数据集合/java数据集合总结.xlsx
+++ b/java/java数据集合/java数据集合总结.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ArrayList" sheetId="3" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,6 +317,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1239,25 +1242,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>疑问？ 为什么不直接替换索引位置的元素，将原位置元素移动到最后位置，这样比整体后移效率不是更高？</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
@@ -1555,8 +1539,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1565,8 +1549,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3076575" y="133348"/>
-          <a:ext cx="2524125" cy="4019551"/>
+          <a:off x="2771775" y="133348"/>
+          <a:ext cx="2295525" cy="4857752"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4424,9 +4408,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:colOff>712470</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4435,8 +4419,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="581025" y="7115175"/>
-          <a:ext cx="4200525" cy="1362075"/>
+          <a:off x="581025" y="6978015"/>
+          <a:ext cx="3712845" cy="1777365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4721,7 +4705,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4756,7 +4740,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4967,13 +4951,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="6.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4984,7 +4968,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="9" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -4995,24 +4979,24 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="11" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="16" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -5037,13 +5021,13 @@
   <dimension ref="B7:H22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
@@ -5054,7 +5038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -5062,8 +5046,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
@@ -5077,8 +5061,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
         <v>5</v>
@@ -5093,8 +5077,8 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="18" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
@@ -5105,8 +5089,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7" t="s">
         <v>7</v>
       </c>
@@ -5132,31 +5116,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F2" s="15"/>
       <c r="G2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="10"/>
       <c r="G3" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>19</v>
       </c>
@@ -5168,32 +5152,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
       <c r="F5" s="10"/>
       <c r="G5" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" t="s">
         <v>18</v>
